--- a/sigset/documentos/Seminario/ç.xlsx
+++ b/sigset/documentos/Seminario/ç.xlsx
@@ -4,19 +4,63 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Valores Google" sheetId="1" r:id="rId1"/>
+    <sheet name="Flujo de caja Empresa" sheetId="2" r:id="rId2"/>
+    <sheet name="Flujo de caja proyecto" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Bj</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Luis Elgueta:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Costo que tendra el Software para nuestro cliente.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Costos Google engine</t>
   </si>
@@ -76,13 +120,179 @@
   </si>
   <si>
     <t>* Valores en dolares</t>
+  </si>
+  <si>
+    <t>considerando que se cobrara por usuario un monto de 50.000 (usuario de empresa , una empresa puede tener muchos usuarios)</t>
+  </si>
+  <si>
+    <t>Flujo de caja Escenario Normal</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Año 1</t>
+  </si>
+  <si>
+    <t>Año 2</t>
+  </si>
+  <si>
+    <t>Año 3</t>
+  </si>
+  <si>
+    <t>Año 4</t>
+  </si>
+  <si>
+    <t>Año 5</t>
+  </si>
+  <si>
+    <t>Factibilidad Económica</t>
+  </si>
+  <si>
+    <t>VALOR NETO:</t>
+  </si>
+  <si>
+    <t>I.V.A. D.F.</t>
+  </si>
+  <si>
+    <t>Duración del Proyecto:</t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>VALOR SIN PATRIMONIO:</t>
+  </si>
+  <si>
+    <t>UTILIDAD(%):</t>
+  </si>
+  <si>
+    <t>PATRIMONIO:</t>
+  </si>
+  <si>
+    <t>COSTO TOTAL:</t>
+  </si>
+  <si>
+    <t>Flujo de caja desarrollo del sistema</t>
+  </si>
+  <si>
+    <t>Detalle Remuneraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalle </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Sueldo Mes</t>
+  </si>
+  <si>
+    <t>Total Sueldos</t>
+  </si>
+  <si>
+    <t>Analista Programador</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Remuneración duración del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flujo de caja Gastos </t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>Total Mensual</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Comestibles</t>
+  </si>
+  <si>
+    <t>Arriendo oficina</t>
+  </si>
+  <si>
+    <t>Muebles</t>
+  </si>
+  <si>
+    <t>(* solo el primer mes)</t>
+  </si>
+  <si>
+    <t>Telefono + Internet</t>
+  </si>
+  <si>
+    <t>Total gastos duración del proyecto</t>
+  </si>
+  <si>
+    <t>Total Gastos y Remuneraciones</t>
+  </si>
+  <si>
+    <t>Valor x usuario</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t>Otros Ingresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Factores</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento usuarios</t>
+  </si>
+  <si>
+    <t>valor usuarios</t>
+  </si>
+  <si>
+    <t>cantidad de meses</t>
+  </si>
+  <si>
+    <t>usuarios inicial</t>
+  </si>
+  <si>
+    <t>Demanda Usuarios</t>
+  </si>
+  <si>
+    <t>Cantidad de usuarios</t>
+  </si>
+  <si>
+    <t>Valor Usuario</t>
+  </si>
+  <si>
+    <t>Total Anual</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>considerando que el costo por usuario es de aproximadamente 31000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$* #,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-340A]\ #,##0"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +308,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +385,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -155,11 +452,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -168,6 +601,107 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -611,6 +1145,11 @@
         <v>30500.959999999999</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -619,24 +1158,674 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="35">
+        <f>$E25</f>
+        <v>6000000</v>
+      </c>
+      <c r="C7" s="35">
+        <f>$E26</f>
+        <v>7800000</v>
+      </c>
+      <c r="D7" s="35">
+        <f>$E27</f>
+        <v>9600000</v>
+      </c>
+      <c r="E7" s="35">
+        <f>$E28</f>
+        <v>10800000</v>
+      </c>
+      <c r="F7" s="35">
+        <f>$E29</f>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6">
+        <f>SUM(B7:B14)</f>
+        <v>6000000</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:F15" si="0">SUM(C7:C14)</f>
+        <v>7800000</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>10800000</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="35">
+        <v>50000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="35">
+        <f>$C$21</f>
+        <v>50000</v>
+      </c>
+      <c r="D25" s="35">
+        <f>C25*B25</f>
+        <v>500000</v>
+      </c>
+      <c r="E25" s="35">
+        <f>D25*$D$21</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="35">
+        <f t="shared" ref="C26:C29" si="1">$C$21</f>
+        <v>50000</v>
+      </c>
+      <c r="D26" s="35">
+        <f t="shared" ref="D26:D29" si="2">C26*B26</f>
+        <v>650000</v>
+      </c>
+      <c r="E26" s="35">
+        <f t="shared" ref="E26:E29" si="3">D26*$D$21</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16</v>
+      </c>
+      <c r="C27" s="35">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="D27" s="35">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="E27" s="35">
+        <f t="shared" si="3"/>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18</v>
+      </c>
+      <c r="C28" s="35">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="D28" s="35">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="E28" s="35">
+        <f t="shared" si="3"/>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>21</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="2"/>
+        <v>1050000</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="3"/>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9">
+        <f>C3*D13</f>
+        <v>3900000</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="45">
+        <f>(F1*0.19)</f>
+        <v>741000</v>
+      </c>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="18">
+        <f>(F1+F2)</f>
+        <v>4641000</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="18">
+        <f>(F4+F3)</f>
+        <v>4641000</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="18.75">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>700000</v>
+      </c>
+      <c r="D11" s="35">
+        <f>B11*C11</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35">
+        <v>600000</v>
+      </c>
+      <c r="D12" s="35">
+        <f>B12*C12</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35">
+        <f>SUM(D11:D12)</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="35">
+        <f>D13*C3</f>
+        <v>3900000</v>
+      </c>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="35">
+        <v>25000</v>
+      </c>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="35">
+        <v>25000</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="35">
+        <v>300000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="37">
+        <v>1</v>
+      </c>
+      <c r="C25" s="35">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="35">
+        <f>SUM(C20:C25)-C24</f>
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="35">
+        <f>C26*C3</f>
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="38">
+        <f>C15+C28</f>
+        <v>5040000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sigset/documentos/Seminario/ç.xlsx
+++ b/sigset/documentos/Seminario/ç.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Valores Google" sheetId="1" r:id="rId1"/>
@@ -606,22 +606,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,19 +617,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,33 +645,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -702,6 +654,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1170,7 +1170,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1189,22 +1189,22 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1212,23 +1212,23 @@
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="28">
         <f>$E25</f>
         <v>6000000</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="28">
         <f>$E26</f>
         <v>7800000</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="28">
         <f>$E27</f>
         <v>9600000</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="28">
         <f>$E28</f>
         <v>10800000</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="28">
         <f>$E29</f>
         <v>12600000</v>
       </c>
@@ -1244,12 +1244,12 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1326,16 +1326,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="28">
         <v>50000</v>
       </c>
       <c r="D21" s="1">
@@ -1354,31 +1354,31 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1389,15 +1389,15 @@
       <c r="B25" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="28">
         <f>$C$21</f>
         <v>50000</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="28">
         <f>C25*B25</f>
         <v>500000</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="28">
         <f>D25*$D$21</f>
         <v>6000000</v>
       </c>
@@ -1409,15 +1409,15 @@
       <c r="B26" s="1">
         <v>13</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="28">
         <f t="shared" ref="C26:C29" si="1">$C$21</f>
         <v>50000</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="28">
         <f t="shared" ref="D26:D29" si="2">C26*B26</f>
         <v>650000</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="28">
         <f t="shared" ref="E26:E29" si="3">D26*$D$21</f>
         <v>7800000</v>
       </c>
@@ -1429,15 +1429,15 @@
       <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="28">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="28">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="28">
         <f t="shared" si="3"/>
         <v>9600000</v>
       </c>
@@ -1449,15 +1449,15 @@
       <c r="B28" s="1">
         <v>18</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="28">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="28">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="28">
         <f t="shared" si="3"/>
         <v>10800000</v>
       </c>
@@ -1469,33 +1469,33 @@
       <c r="B29" s="1">
         <v>21</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="28">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="28">
         <f t="shared" si="2"/>
         <v>1050000</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="28">
         <f t="shared" si="3"/>
         <v>12600000</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1517,120 +1517,120 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="31"/>
+    <col min="5" max="5" width="25.5703125" style="24" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="44">
         <f>C3*D13</f>
         <v>3900000</v>
       </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="12" t="s">
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="49">
         <f>(F1*0.19)</f>
         <v>741000</v>
       </c>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15">
+      <c r="B3" s="52"/>
+      <c r="C3" s="11">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="39">
         <f>(F1+F2)</f>
         <v>4641000</v>
       </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A4" s="19" t="s">
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="20">
+      <c r="B4" s="38"/>
+      <c r="C4" s="14">
         <v>0.12</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="17" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="39">
         <f>(F4+F3)</f>
         <v>4641000</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="18.75">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="18.75">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1641,10 +1641,10 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="28">
         <v>700000</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="28">
         <f>B11*C11</f>
         <v>700000</v>
       </c>
@@ -1656,62 +1656,62 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="28">
         <v>600000</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="28">
         <f>B12*C12</f>
         <v>600000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="28">
         <f>SUM(D11:D12)</f>
         <v>1300000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="35">
+      <c r="C15" s="28">
         <f>D13*C3</f>
         <v>3900000</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
@@ -1720,10 +1720,10 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="28">
         <v>25000</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
@@ -1732,41 +1732,41 @@
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="28">
         <v>25000</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="28">
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="28">
         <v>200000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="28">
         <v>300000</v>
       </c>
       <c r="D24" t="s">
@@ -1774,18 +1774,18 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="30">
         <v>1</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="28">
         <v>30000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="C26" s="35">
+      <c r="C26" s="28">
         <f>SUM(C20:C25)-C24</f>
         <v>380000</v>
       </c>
@@ -1798,17 +1798,17 @@
         <v>56</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="35">
+      <c r="C28" s="28">
         <f>C26*C3</f>
         <v>1140000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="38">
+      <c r="B30" s="25"/>
+      <c r="C30" s="31">
         <f>C15+C28</f>
         <v>5040000</v>
       </c>
